--- a/res_sni/data/sni2007_v2.xlsx
+++ b/res_sni/data/sni2007_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\staff\Dropbox\projekt\Vertel_projekt\github-vertelab\odoo-base\res_sni\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F8C5C-F31B-4EBA-8EA6-A251EB8CE927}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D34C34-71B1-4A1D-B37E-48894C04D253}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="613" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -14196,9 +14193,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>sni_D</t>
   </si>
   <si>
@@ -14247,17 +14241,20 @@
     <t>sni_U</t>
   </si>
   <si>
-    <t>parent_id / external id</t>
-  </si>
-  <si>
-    <t>external id</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>parent_id/id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -14343,6 +14340,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -14361,7 +14363,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
@@ -14371,8 +14373,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14403,12 +14406,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Förklarande text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Hyperlänk 2" xfId="3" xr:uid="{F49E402E-543A-4FF3-ACDB-89B4BECE1F10}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{F4C2D244-21F0-423A-B098-CFB97BB75635}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{DA9F280F-B0DF-48C1-B883-8C8CF056E33E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -35659,7 +35664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6570" topLeftCell="A23"/>
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -35668,25 +35673,27 @@
     <col min="1" max="1" width="12.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="12"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="4" max="4" width="112.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>4715</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>4697</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>4716</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>4715</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>4697</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>4698</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="str">
         <f>"sni_"&amp;C2</f>
         <v>sni_A</v>
@@ -35700,7 +35707,7 @@
         <v>Jordbruk, skogsbruk och fiske</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
         <f t="shared" ref="A3:A66" si="0">"sni_"&amp;C3</f>
         <v>sni_B</v>
@@ -35714,7 +35721,7 @@
         <v>Utvinning av mineral</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_C</v>
@@ -35728,7 +35735,7 @@
         <v>Tillverkning</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_D</v>
@@ -35742,7 +35749,7 @@
         <v>Försörjning av el, gas, värme och kyla</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_E</v>
@@ -35756,7 +35763,7 @@
         <v>Vattenförsörjning; avloppsrening, avfallshantering och sanering</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_F</v>
@@ -35770,7 +35777,7 @@
         <v>Byggverksamhet</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_G</v>
@@ -35784,7 +35791,7 @@
         <v>Handel; reparation av motorfordon och motorcyklar</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_H</v>
@@ -35798,7 +35805,7 @@
         <v>Transport och magasinering</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_I</v>
@@ -35812,7 +35819,7 @@
         <v>Hotell- och restaurangverksamhet</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_J</v>
@@ -35826,7 +35833,7 @@
         <v>Informations- och kommunikationsverksamhet</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_K</v>
@@ -35840,7 +35847,7 @@
         <v>Finans- och försäkringsverksamhet</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_L</v>
@@ -35854,7 +35861,7 @@
         <v>Fastighetsverksamhet</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_M</v>
@@ -35868,7 +35875,7 @@
         <v>Verksamhet inom juridik, ekonomi, vetenskap och teknik</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_N</v>
@@ -35882,7 +35889,7 @@
         <v>Uthyrning, fastighetsservice, resetjänster och andra stödtjänster</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>sni_O</v>
@@ -36564,7 +36571,7 @@
         <v>sni_35</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="C55" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A36</f>
@@ -36581,7 +36588,7 @@
         <v>sni_36</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="C56" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A37</f>
@@ -36598,7 +36605,7 @@
         <v>sni_37</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="C57" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A38</f>
@@ -36615,7 +36622,7 @@
         <v>sni_38</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="C58" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A39</f>
@@ -36632,7 +36639,7 @@
         <v>sni_39</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="C59" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A40</f>
@@ -36649,7 +36656,7 @@
         <v>sni_41</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="C60" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A41</f>
@@ -36666,7 +36673,7 @@
         <v>sni_42</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="C61" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A42</f>
@@ -36683,7 +36690,7 @@
         <v>sni_43</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="C62" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A43</f>
@@ -36700,7 +36707,7 @@
         <v>sni_45</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="C63" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A44</f>
@@ -36717,7 +36724,7 @@
         <v>sni_46</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="C64" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A45</f>
@@ -36735,7 +36742,7 @@
         <v>sni_47</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="C65" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A46</f>
@@ -36752,7 +36759,7 @@
         <v>sni_49</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="C66" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A47</f>
@@ -36769,7 +36776,7 @@
         <v>sni_50</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="C67" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A48</f>
@@ -36787,7 +36794,7 @@
         <v>sni_51</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="C68" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A49</f>
@@ -36804,7 +36811,7 @@
         <v>sni_52</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="C69" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A50</f>
@@ -36821,7 +36828,7 @@
         <v>sni_53</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="C70" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A51</f>
@@ -36838,7 +36845,7 @@
         <v>sni_55</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="C71" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A52</f>
@@ -36855,7 +36862,7 @@
         <v>sni_56</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="C72" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A53</f>
@@ -36872,7 +36879,7 @@
         <v>sni_58</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="C73" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A54</f>
@@ -36890,7 +36897,7 @@
         <v>sni_59</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="C74" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A55</f>
@@ -36907,7 +36914,7 @@
         <v>sni_60</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="C75" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A56</f>
@@ -36924,7 +36931,7 @@
         <v>sni_61</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="C76" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A57</f>
@@ -36941,7 +36948,7 @@
         <v>sni_62</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="C77" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A58</f>
@@ -36958,7 +36965,7 @@
         <v>sni_63</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="C78" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A59</f>
@@ -36975,7 +36982,7 @@
         <v>sni_64</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
       <c r="C79" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A60</f>
@@ -36992,7 +36999,7 @@
         <v>sni_65</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
       <c r="C80" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A61</f>
@@ -37009,7 +37016,7 @@
         <v>sni_66</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
       <c r="C81" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A62</f>
@@ -37026,7 +37033,7 @@
         <v>sni_68</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>4707</v>
+        <v>4706</v>
       </c>
       <c r="C82" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A63</f>
@@ -37043,7 +37050,7 @@
         <v>sni_69</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="C83" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A64</f>
@@ -37060,7 +37067,7 @@
         <v>sni_70</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="C84" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A65</f>
@@ -37077,7 +37084,7 @@
         <v>sni_71</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="C85" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A66</f>
@@ -37094,7 +37101,7 @@
         <v>sni_72</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="C86" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A67</f>
@@ -37111,7 +37118,7 @@
         <v>sni_73</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="C87" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A68</f>
@@ -37128,7 +37135,7 @@
         <v>sni_74</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="C88" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A69</f>
@@ -37145,7 +37152,7 @@
         <v>sni_75</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="C89" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A70</f>
@@ -37162,7 +37169,7 @@
         <v>sni_77</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="C90" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A71</f>
@@ -37179,7 +37186,7 @@
         <v>sni_78</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="C91" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A72</f>
@@ -37196,7 +37203,7 @@
         <v>sni_79</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="C92" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A73</f>
@@ -37214,7 +37221,7 @@
         <v>sni_80</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="C93" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A74</f>
@@ -37231,7 +37238,7 @@
         <v>sni_81</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="C94" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A75</f>
@@ -37248,7 +37255,7 @@
         <v>sni_82</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="C95" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A76</f>
@@ -37265,7 +37272,7 @@
         <v>sni_84</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="C96" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A77</f>
@@ -37282,7 +37289,7 @@
         <v>sni_85</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="C97" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A78</f>
@@ -37299,7 +37306,7 @@
         <v>sni_86</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="C98" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A79</f>
@@ -37316,7 +37323,7 @@
         <v>sni_87</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="C99" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A80</f>
@@ -37333,7 +37340,7 @@
         <v>sni_88</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="C100" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A81</f>
@@ -37350,7 +37357,7 @@
         <v>sni_90</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="C101" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A82</f>
@@ -37367,7 +37374,7 @@
         <v>sni_91</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="C102" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A83</f>
@@ -37384,7 +37391,7 @@
         <v>sni_92</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="C103" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A84</f>
@@ -37401,7 +37408,7 @@
         <v>sni_93</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="C104" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A85</f>
@@ -37418,7 +37425,7 @@
         <v>sni_94</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C105" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A86</f>
@@ -37435,7 +37442,7 @@
         <v>sni_95</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C106" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A87</f>
@@ -37452,7 +37459,7 @@
         <v>sni_96</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C107" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A88</f>
@@ -37469,7 +37476,7 @@
         <v>sni_97</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C108" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A89</f>
@@ -37486,7 +37493,7 @@
         <v>sni_98</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="C109" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A90</f>
@@ -37503,7 +37510,7 @@
         <v>sni_99</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="C110" s="12" t="str">
         <f>'Huvudgrupp (Tvåsiffer)'!A91</f>
